--- a/DONE/ABELA, IMELDA.xlsx
+++ b/DONE/ABELA, IMELDA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\DONE ENCODING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1769,10 +1769,10 @@
   </sheetPr>
   <dimension ref="A2:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A61" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2190" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3996,7 +3996,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
@@ -4005,7 +4005,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="88" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -4013,8 +4013,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                          OIC-HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/DONE/ABELA, IMELDA.xlsx
+++ b/DONE/ABELA, IMELDA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="148">
   <si>
     <t>PERIOD</t>
   </si>
@@ -477,6 +477,9 @@
   </si>
   <si>
     <t>2/9,10/2023</t>
+  </si>
+  <si>
+    <t>4/18,19/2023</t>
   </si>
 </sst>
 </file>
@@ -860,14 +863,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -877,9 +883,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1769,10 +1772,10 @@
   </sheetPr>
   <dimension ref="A2:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2190" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,14 +1805,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1820,16 +1823,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>43101</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1842,14 +1845,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1875,18 +1878,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3984,17 +3987,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4029,10 +4032,10 @@
   </sheetPr>
   <dimension ref="A2:K204"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3990" topLeftCell="A148" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9:I14"/>
-      <selection pane="bottomLeft" activeCell="A167" sqref="A167"/>
+      <selection pane="bottomLeft" activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4062,14 +4065,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -4080,16 +4083,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>43101</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -4102,14 +4105,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -4135,18 +4138,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4203,7 +4206,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>18.75</v>
+        <v>16.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -7647,8 +7650,12 @@
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="41"/>
-      <c r="B167" s="20"/>
+      <c r="A167" s="41">
+        <v>45017</v>
+      </c>
+      <c r="B167" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C167" s="13"/>
       <c r="D167" s="40"/>
       <c r="E167" s="9"/>
@@ -7657,10 +7664,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H167" s="40"/>
+      <c r="H167" s="40">
+        <v>2</v>
+      </c>
       <c r="I167" s="9"/>
       <c r="J167" s="11"/>
-      <c r="K167" s="20"/>
+      <c r="K167" s="20" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="41"/>
